--- a/UDM.Insurance.Interface/Templates/PrintTemplateUpgradeRedeemed2Transfer.xlsx
+++ b/UDM.Insurance.Interface/Templates/PrintTemplateUpgradeRedeemed2Transfer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TyronR\Desktop\Source\udminsure\UDM.Insurance.Interface\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyleh\source\repos\Insure20230223\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564490B4-32EC-490B-A096-CC582998C7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F149CE9-4A28-48B4-B17B-F10B3ED2D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3345" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <definedName name="LifeAssured2FirstName" localSheetId="4">'Cover And Lead'!$AX$46</definedName>
     <definedName name="LifeAssured2Surname">'Cover And Lead'!$AX$47</definedName>
     <definedName name="NewTotalPremium" localSheetId="4">'Cover And Lead'!$AJ$48</definedName>
+    <definedName name="NOKDetails">'Cover And Lead'!$AC$50</definedName>
     <definedName name="Offer">'Cover And Lead'!$V$48</definedName>
     <definedName name="PostalCode" localSheetId="4">'Cover And Lead'!$AP$42</definedName>
     <definedName name="RefNo" localSheetId="4">'Cover And Lead'!$A$42</definedName>
@@ -805,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1174,9 +1175,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,6 +1257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1291,8 +1292,11 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1510,9 +1514,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1550,9 +1554,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1585,26 +1589,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1637,26 +1624,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1836,17 +1806,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
         <v>14</v>
       </c>
@@ -1855,7 +1825,7 @@
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1872,126 +1842,126 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2016,13 +1986,13 @@
       <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="75" width="2.54296875" style="15" customWidth="1"/>
-    <col min="76" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="75" width="2.5703125" style="15" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>34</v>
       </c>
@@ -2099,7 +2069,7 @@
       <c r="BB1" s="51"/>
       <c r="BC1" s="51"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -2156,7 +2126,7 @@
       <c r="BB2" s="62"/>
       <c r="BC2" s="62"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -2213,7 +2183,7 @@
       <c r="BB3" s="62"/>
       <c r="BC3" s="62"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
         <v>64</v>
       </c>
@@ -2288,7 +2258,7 @@
       <c r="BB4" s="51"/>
       <c r="BC4" s="51"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
@@ -2345,7 +2315,7 @@
       <c r="BB5" s="63"/>
       <c r="BC5" s="63"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" s="51" t="s">
         <v>44</v>
       </c>
@@ -2419,7 +2389,7 @@
       <c r="BC6" s="51"/>
       <c r="BD6" s="17"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -2477,7 +2447,7 @@
       <c r="BC7" s="52"/>
       <c r="BD7" s="16"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
         <v>63</v>
       </c>
@@ -2544,7 +2514,7 @@
       <c r="BB8" s="51"/>
       <c r="BC8" s="51"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="60"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -2601,7 +2571,7 @@
       <c r="BB9" s="59"/>
       <c r="BC9" s="59"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="53" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +2644,7 @@
       <c r="BB10" s="61"/>
       <c r="BC10" s="61"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
@@ -2731,7 +2701,7 @@
       <c r="BB11" s="61"/>
       <c r="BC11" s="61"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>55</v>
       </c>
@@ -2790,7 +2760,7 @@
       <c r="BB12" s="61"/>
       <c r="BC12" s="61"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
@@ -2936,12 +2906,12 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="55" width="2.54296875" customWidth="1"/>
+    <col min="1" max="55" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2998,8 +2968,8 @@
       <c r="BB1" s="15"/>
       <c r="BC1" s="15"/>
     </row>
-    <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -3052,51 +3022,51 @@
       <c r="AZ3" s="8"/>
       <c r="BA3" s="9"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="BA4" s="11"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="BA5" s="11"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="BA6" s="11"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="BA7" s="11"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="BA8" s="11"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="BA9" s="11"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="BA10" s="11"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="BA11" s="11"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="BA12" s="11"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="BA13" s="11"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="BA14" s="11"/>
     </row>
-    <row r="15" spans="1:55" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:55" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C15" s="19"/>
       <c r="P15" s="73" t="s">
         <v>0</v>
@@ -3139,7 +3109,7 @@
       <c r="AZ15" s="75"/>
       <c r="BA15" s="20"/>
     </row>
-    <row r="16" spans="1:55" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:55" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C16" s="19"/>
       <c r="P16" s="73" t="s">
         <v>1</v>
@@ -3182,7 +3152,7 @@
       <c r="AZ16" s="75"/>
       <c r="BA16" s="20"/>
     </row>
-    <row r="17" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C17" s="19"/>
       <c r="P17" s="73" t="s">
         <v>2</v>
@@ -3225,7 +3195,7 @@
       <c r="AZ17" s="75"/>
       <c r="BA17" s="20"/>
     </row>
-    <row r="18" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C18" s="19"/>
       <c r="P18" s="73" t="s">
         <v>3</v>
@@ -3268,7 +3238,7 @@
       <c r="AZ18" s="75"/>
       <c r="BA18" s="20"/>
     </row>
-    <row r="19" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C19" s="19"/>
       <c r="P19" s="73" t="s">
         <v>4</v>
@@ -3311,7 +3281,7 @@
       <c r="AZ19" s="76"/>
       <c r="BA19" s="20"/>
     </row>
-    <row r="20" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C20" s="19"/>
       <c r="P20" s="73" t="s">
         <v>66</v>
@@ -3354,7 +3324,7 @@
       <c r="AZ20" s="74"/>
       <c r="BA20" s="20"/>
     </row>
-    <row r="21" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C21" s="19"/>
       <c r="P21" s="73" t="s">
         <v>5</v>
@@ -3397,11 +3367,11 @@
       <c r="AZ21" s="74"/>
       <c r="BA21" s="20"/>
     </row>
-    <row r="22" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="BA22" s="11"/>
     </row>
-    <row r="23" spans="3:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="P23" s="72" t="s">
         <v>88</v>
@@ -3444,7 +3414,7 @@
       <c r="AZ23" s="72"/>
       <c r="BA23" s="11"/>
     </row>
-    <row r="24" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="P24" s="72"/>
       <c r="Q24" s="72"/>
@@ -3485,15 +3455,15 @@
       <c r="AZ24" s="72"/>
       <c r="BA24" s="11"/>
     </row>
-    <row r="25" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
       <c r="BA25" s="11"/>
     </row>
-    <row r="26" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C26" s="10"/>
       <c r="BA26" s="11"/>
     </row>
-    <row r="27" spans="3:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -3578,12 +3548,12 @@
       <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
@@ -3595,7 +3565,7 @@
       <c r="H2" s="114"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="115" t="s">
         <v>15</v>
       </c>
@@ -3607,10 +3577,10 @@
       <c r="H3" s="120"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G4" s="4"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
         <v>16</v>
       </c>
@@ -3621,7 +3591,7 @@
       <c r="G6" s="107"/>
       <c r="H6" s="108"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="94" t="s">
         <v>17</v>
       </c>
@@ -3632,7 +3602,7 @@
       <c r="G7" s="107"/>
       <c r="H7" s="108"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
         <v>18</v>
       </c>
@@ -3643,7 +3613,7 @@
       <c r="G8" s="107"/>
       <c r="H8" s="108"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="94" t="s">
         <v>19</v>
       </c>
@@ -3654,7 +3624,7 @@
       <c r="G9" s="107"/>
       <c r="H9" s="108"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="94" t="s">
         <v>20</v>
       </c>
@@ -3665,7 +3635,7 @@
       <c r="G10" s="98"/>
       <c r="H10" s="99"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="94" t="s">
         <v>21</v>
       </c>
@@ -3678,7 +3648,7 @@
       <c r="G13" s="95"/>
       <c r="H13" s="96"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="100"/>
       <c r="C14" s="101"/>
       <c r="D14" s="102"/>
@@ -3687,7 +3657,7 @@
       <c r="G14" s="104"/>
       <c r="H14" s="105"/>
     </row>
-    <row r="16" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="91" t="s">
         <v>22</v>
       </c>
@@ -3701,7 +3671,7 @@
       <c r="J16" s="92"/>
       <c r="K16" s="93"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3713,7 +3683,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3725,7 +3695,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3737,7 +3707,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3749,7 +3719,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3761,7 +3731,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="91" t="s">
         <v>23</v>
       </c>
@@ -3775,7 +3745,7 @@
       <c r="J22" s="92"/>
       <c r="K22" s="93"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3787,7 +3757,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="25" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="91" t="s">
         <v>24</v>
       </c>
@@ -3814,7 +3784,7 @@
       </c>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="84" t="s">
         <v>29</v>
       </c>
@@ -3831,7 +3801,7 @@
       <c r="M26" s="87"/>
       <c r="N26" s="88"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="78" t="s">
         <v>30</v>
       </c>
@@ -3848,7 +3818,7 @@
       <c r="M27" s="82"/>
       <c r="N27" s="83"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="84" t="s">
         <v>31</v>
       </c>
@@ -3865,7 +3835,7 @@
       <c r="M28" s="77"/>
       <c r="N28" s="77"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="78" t="s">
         <v>32</v>
       </c>
@@ -3882,7 +3852,7 @@
       <c r="M29" s="81"/>
       <c r="N29" s="81"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="84" t="s">
         <v>33</v>
       </c>
@@ -3967,19 +3937,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BD306"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26:AZ29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC50" sqref="AC50:AI55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="1.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="55" width="2.453125" customWidth="1"/>
-    <col min="56" max="59" width="1.1796875" customWidth="1"/>
+    <col min="1" max="55" width="2.42578125" customWidth="1"/>
+    <col min="56" max="59" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:53" s="15" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:53" s="15" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -4032,63 +4002,63 @@
       <c r="AZ3" s="22"/>
       <c r="BA3" s="23"/>
     </row>
-    <row r="4" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C4" s="24"/>
       <c r="BA4" s="25"/>
     </row>
-    <row r="5" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C5" s="24"/>
       <c r="BA5" s="25"/>
     </row>
-    <row r="6" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C6" s="24"/>
       <c r="BA6" s="25"/>
     </row>
-    <row r="7" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C7" s="24"/>
       <c r="BA7" s="25"/>
     </row>
-    <row r="8" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C8" s="24"/>
       <c r="BA8" s="25"/>
     </row>
-    <row r="9" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="24"/>
       <c r="BA9" s="25"/>
     </row>
-    <row r="10" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C10" s="24"/>
       <c r="BA10" s="25"/>
     </row>
-    <row r="11" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C11" s="24"/>
       <c r="BA11" s="25"/>
     </row>
-    <row r="12" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C12" s="24"/>
       <c r="BA12" s="25"/>
     </row>
-    <row r="13" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C13" s="24"/>
       <c r="BA13" s="25"/>
     </row>
-    <row r="14" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C14" s="24"/>
       <c r="BA14" s="25"/>
     </row>
-    <row r="15" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C15" s="24"/>
       <c r="BA15" s="25"/>
     </row>
-    <row r="16" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C16" s="24"/>
       <c r="BA16" s="25"/>
     </row>
-    <row r="17" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C17" s="24"/>
       <c r="BA17" s="25"/>
     </row>
-    <row r="18" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C18" s="19"/>
       <c r="P18" s="73" t="s">
         <v>0</v>
@@ -4131,7 +4101,7 @@
       <c r="AZ18" s="75"/>
       <c r="BA18" s="20"/>
     </row>
-    <row r="19" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C19" s="19"/>
       <c r="P19" s="73" t="s">
         <v>1</v>
@@ -4174,7 +4144,7 @@
       <c r="AZ19" s="75"/>
       <c r="BA19" s="20"/>
     </row>
-    <row r="20" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C20" s="19"/>
       <c r="P20" s="73" t="s">
         <v>2</v>
@@ -4217,7 +4187,7 @@
       <c r="AZ20" s="75"/>
       <c r="BA20" s="20"/>
     </row>
-    <row r="21" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C21" s="19"/>
       <c r="P21" s="73" t="s">
         <v>3</v>
@@ -4260,7 +4230,7 @@
       <c r="AZ21" s="75"/>
       <c r="BA21" s="20"/>
     </row>
-    <row r="22" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C22" s="19"/>
       <c r="P22" s="73" t="s">
         <v>4</v>
@@ -4303,7 +4273,7 @@
       <c r="AZ22" s="75"/>
       <c r="BA22" s="20"/>
     </row>
-    <row r="23" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C23" s="19"/>
       <c r="P23" s="73" t="s">
         <v>66</v>
@@ -4346,7 +4316,7 @@
       <c r="AZ23" s="74"/>
       <c r="BA23" s="20"/>
     </row>
-    <row r="24" spans="3:53" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:53" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C24" s="19"/>
       <c r="P24" s="73" t="s">
         <v>5</v>
@@ -4389,189 +4359,189 @@
       <c r="AZ24" s="74"/>
       <c r="BA24" s="20"/>
     </row>
-    <row r="25" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C25" s="24"/>
       <c r="BA25" s="25"/>
     </row>
-    <row r="26" spans="3:53" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:53" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="P26" s="185" t="s">
+      <c r="P26" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
-      <c r="Y26" s="185"/>
-      <c r="Z26" s="185"/>
-      <c r="AA26" s="185"/>
-      <c r="AB26" s="185"/>
-      <c r="AC26" s="185"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="185"/>
-      <c r="AF26" s="185"/>
-      <c r="AG26" s="185"/>
-      <c r="AH26" s="185"/>
-      <c r="AI26" s="185"/>
-      <c r="AJ26" s="185"/>
-      <c r="AK26" s="185"/>
-      <c r="AL26" s="185"/>
-      <c r="AM26" s="185"/>
-      <c r="AN26" s="185"/>
-      <c r="AO26" s="185"/>
-      <c r="AP26" s="185"/>
-      <c r="AQ26" s="185"/>
-      <c r="AR26" s="185"/>
-      <c r="AS26" s="185"/>
-      <c r="AT26" s="185"/>
-      <c r="AU26" s="185"/>
-      <c r="AV26" s="185"/>
-      <c r="AW26" s="185"/>
-      <c r="AX26" s="185"/>
-      <c r="AY26" s="185"/>
-      <c r="AZ26" s="185"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172"/>
+      <c r="U26" s="172"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="172"/>
+      <c r="Y26" s="172"/>
+      <c r="Z26" s="172"/>
+      <c r="AA26" s="172"/>
+      <c r="AB26" s="172"/>
+      <c r="AC26" s="172"/>
+      <c r="AD26" s="172"/>
+      <c r="AE26" s="172"/>
+      <c r="AF26" s="172"/>
+      <c r="AG26" s="172"/>
+      <c r="AH26" s="172"/>
+      <c r="AI26" s="172"/>
+      <c r="AJ26" s="172"/>
+      <c r="AK26" s="172"/>
+      <c r="AL26" s="172"/>
+      <c r="AM26" s="172"/>
+      <c r="AN26" s="172"/>
+      <c r="AO26" s="172"/>
+      <c r="AP26" s="172"/>
+      <c r="AQ26" s="172"/>
+      <c r="AR26" s="172"/>
+      <c r="AS26" s="172"/>
+      <c r="AT26" s="172"/>
+      <c r="AU26" s="172"/>
+      <c r="AV26" s="172"/>
+      <c r="AW26" s="172"/>
+      <c r="AX26" s="172"/>
+      <c r="AY26" s="172"/>
+      <c r="AZ26" s="172"/>
       <c r="BA26" s="25"/>
     </row>
-    <row r="27" spans="3:53" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:53" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="P27" s="185"/>
-      <c r="Q27" s="185"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="185"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="185"/>
-      <c r="V27" s="185"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="185"/>
-      <c r="Y27" s="185"/>
-      <c r="Z27" s="185"/>
-      <c r="AA27" s="185"/>
-      <c r="AB27" s="185"/>
-      <c r="AC27" s="185"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="185"/>
-      <c r="AF27" s="185"/>
-      <c r="AG27" s="185"/>
-      <c r="AH27" s="185"/>
-      <c r="AI27" s="185"/>
-      <c r="AJ27" s="185"/>
-      <c r="AK27" s="185"/>
-      <c r="AL27" s="185"/>
-      <c r="AM27" s="185"/>
-      <c r="AN27" s="185"/>
-      <c r="AO27" s="185"/>
-      <c r="AP27" s="185"/>
-      <c r="AQ27" s="185"/>
-      <c r="AR27" s="185"/>
-      <c r="AS27" s="185"/>
-      <c r="AT27" s="185"/>
-      <c r="AU27" s="185"/>
-      <c r="AV27" s="185"/>
-      <c r="AW27" s="185"/>
-      <c r="AX27" s="185"/>
-      <c r="AY27" s="185"/>
-      <c r="AZ27" s="185"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="172"/>
+      <c r="U27" s="172"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="172"/>
+      <c r="X27" s="172"/>
+      <c r="Y27" s="172"/>
+      <c r="Z27" s="172"/>
+      <c r="AA27" s="172"/>
+      <c r="AB27" s="172"/>
+      <c r="AC27" s="172"/>
+      <c r="AD27" s="172"/>
+      <c r="AE27" s="172"/>
+      <c r="AF27" s="172"/>
+      <c r="AG27" s="172"/>
+      <c r="AH27" s="172"/>
+      <c r="AI27" s="172"/>
+      <c r="AJ27" s="172"/>
+      <c r="AK27" s="172"/>
+      <c r="AL27" s="172"/>
+      <c r="AM27" s="172"/>
+      <c r="AN27" s="172"/>
+      <c r="AO27" s="172"/>
+      <c r="AP27" s="172"/>
+      <c r="AQ27" s="172"/>
+      <c r="AR27" s="172"/>
+      <c r="AS27" s="172"/>
+      <c r="AT27" s="172"/>
+      <c r="AU27" s="172"/>
+      <c r="AV27" s="172"/>
+      <c r="AW27" s="172"/>
+      <c r="AX27" s="172"/>
+      <c r="AY27" s="172"/>
+      <c r="AZ27" s="172"/>
       <c r="BA27" s="25"/>
     </row>
-    <row r="28" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="185"/>
-      <c r="AA28" s="185"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="185"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="185"/>
-      <c r="AF28" s="185"/>
-      <c r="AG28" s="185"/>
-      <c r="AH28" s="185"/>
-      <c r="AI28" s="185"/>
-      <c r="AJ28" s="185"/>
-      <c r="AK28" s="185"/>
-      <c r="AL28" s="185"/>
-      <c r="AM28" s="185"/>
-      <c r="AN28" s="185"/>
-      <c r="AO28" s="185"/>
-      <c r="AP28" s="185"/>
-      <c r="AQ28" s="185"/>
-      <c r="AR28" s="185"/>
-      <c r="AS28" s="185"/>
-      <c r="AT28" s="185"/>
-      <c r="AU28" s="185"/>
-      <c r="AV28" s="185"/>
-      <c r="AW28" s="185"/>
-      <c r="AX28" s="185"/>
-      <c r="AY28" s="185"/>
-      <c r="AZ28" s="185"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="172"/>
+      <c r="U28" s="172"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="172"/>
+      <c r="X28" s="172"/>
+      <c r="Y28" s="172"/>
+      <c r="Z28" s="172"/>
+      <c r="AA28" s="172"/>
+      <c r="AB28" s="172"/>
+      <c r="AC28" s="172"/>
+      <c r="AD28" s="172"/>
+      <c r="AE28" s="172"/>
+      <c r="AF28" s="172"/>
+      <c r="AG28" s="172"/>
+      <c r="AH28" s="172"/>
+      <c r="AI28" s="172"/>
+      <c r="AJ28" s="172"/>
+      <c r="AK28" s="172"/>
+      <c r="AL28" s="172"/>
+      <c r="AM28" s="172"/>
+      <c r="AN28" s="172"/>
+      <c r="AO28" s="172"/>
+      <c r="AP28" s="172"/>
+      <c r="AQ28" s="172"/>
+      <c r="AR28" s="172"/>
+      <c r="AS28" s="172"/>
+      <c r="AT28" s="172"/>
+      <c r="AU28" s="172"/>
+      <c r="AV28" s="172"/>
+      <c r="AW28" s="172"/>
+      <c r="AX28" s="172"/>
+      <c r="AY28" s="172"/>
+      <c r="AZ28" s="172"/>
       <c r="BA28" s="25"/>
     </row>
-    <row r="29" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="185"/>
-      <c r="Y29" s="185"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="185"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="185"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="185"/>
-      <c r="AF29" s="185"/>
-      <c r="AG29" s="185"/>
-      <c r="AH29" s="185"/>
-      <c r="AI29" s="185"/>
-      <c r="AJ29" s="185"/>
-      <c r="AK29" s="185"/>
-      <c r="AL29" s="185"/>
-      <c r="AM29" s="185"/>
-      <c r="AN29" s="185"/>
-      <c r="AO29" s="185"/>
-      <c r="AP29" s="185"/>
-      <c r="AQ29" s="185"/>
-      <c r="AR29" s="185"/>
-      <c r="AS29" s="185"/>
-      <c r="AT29" s="185"/>
-      <c r="AU29" s="185"/>
-      <c r="AV29" s="185"/>
-      <c r="AW29" s="185"/>
-      <c r="AX29" s="185"/>
-      <c r="AY29" s="185"/>
-      <c r="AZ29" s="185"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="172"/>
+      <c r="U29" s="172"/>
+      <c r="V29" s="172"/>
+      <c r="W29" s="172"/>
+      <c r="X29" s="172"/>
+      <c r="Y29" s="172"/>
+      <c r="Z29" s="172"/>
+      <c r="AA29" s="172"/>
+      <c r="AB29" s="172"/>
+      <c r="AC29" s="172"/>
+      <c r="AD29" s="172"/>
+      <c r="AE29" s="172"/>
+      <c r="AF29" s="172"/>
+      <c r="AG29" s="172"/>
+      <c r="AH29" s="172"/>
+      <c r="AI29" s="172"/>
+      <c r="AJ29" s="172"/>
+      <c r="AK29" s="172"/>
+      <c r="AL29" s="172"/>
+      <c r="AM29" s="172"/>
+      <c r="AN29" s="172"/>
+      <c r="AO29" s="172"/>
+      <c r="AP29" s="172"/>
+      <c r="AQ29" s="172"/>
+      <c r="AR29" s="172"/>
+      <c r="AS29" s="172"/>
+      <c r="AT29" s="172"/>
+      <c r="AU29" s="172"/>
+      <c r="AV29" s="172"/>
+      <c r="AW29" s="172"/>
+      <c r="AX29" s="172"/>
+      <c r="AY29" s="172"/>
+      <c r="AZ29" s="172"/>
       <c r="BA29" s="25"/>
     </row>
-    <row r="30" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C30" s="24"/>
       <c r="BA30" s="25"/>
     </row>
-    <row r="31" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
       <c r="BA31" s="25"/>
     </row>
-    <row r="32" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:53" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C32" s="24"/>
       <c r="BA32" s="25"/>
     </row>
-    <row r="33" spans="1:56" s="15" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:56" s="15" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="26"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -4624,102 +4594,102 @@
       <c r="AZ33" s="27"/>
       <c r="BA33" s="28"/>
     </row>
-    <row r="34" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:56" s="15" customFormat="1" ht="2.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:56" s="15" customFormat="1" ht="2.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="171" t="s">
+    <row r="34" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:56" s="15" customFormat="1" ht="2.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:56" s="15" customFormat="1" ht="2.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="171"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="159" t="s">
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="172"/>
-      <c r="I41" s="171" t="s">
+      <c r="H41" s="171"/>
+      <c r="I41" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171" t="s">
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="170"/>
+      <c r="P41" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="171"/>
-      <c r="S41" s="171"/>
-      <c r="T41" s="171"/>
-      <c r="U41" s="171"/>
-      <c r="V41" s="171"/>
-      <c r="W41" s="171"/>
-      <c r="X41" s="171" t="s">
+      <c r="Q41" s="170"/>
+      <c r="R41" s="170"/>
+      <c r="S41" s="170"/>
+      <c r="T41" s="170"/>
+      <c r="U41" s="170"/>
+      <c r="V41" s="170"/>
+      <c r="W41" s="170"/>
+      <c r="X41" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="Y41" s="171"/>
-      <c r="Z41" s="171"/>
-      <c r="AA41" s="171"/>
-      <c r="AB41" s="171"/>
-      <c r="AC41" s="171" t="s">
+      <c r="Y41" s="170"/>
+      <c r="Z41" s="170"/>
+      <c r="AA41" s="170"/>
+      <c r="AB41" s="170"/>
+      <c r="AC41" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="AD41" s="171"/>
-      <c r="AE41" s="171"/>
-      <c r="AF41" s="171"/>
-      <c r="AG41" s="171"/>
-      <c r="AH41" s="171"/>
-      <c r="AI41" s="171"/>
-      <c r="AJ41" s="171"/>
-      <c r="AK41" s="171"/>
-      <c r="AL41" s="171"/>
-      <c r="AM41" s="171"/>
-      <c r="AN41" s="171"/>
-      <c r="AO41" s="171"/>
-      <c r="AP41" s="171" t="s">
+      <c r="AD41" s="170"/>
+      <c r="AE41" s="170"/>
+      <c r="AF41" s="170"/>
+      <c r="AG41" s="170"/>
+      <c r="AH41" s="170"/>
+      <c r="AI41" s="170"/>
+      <c r="AJ41" s="170"/>
+      <c r="AK41" s="170"/>
+      <c r="AL41" s="170"/>
+      <c r="AM41" s="170"/>
+      <c r="AN41" s="170"/>
+      <c r="AO41" s="170"/>
+      <c r="AP41" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="AQ41" s="171"/>
-      <c r="AR41" s="171" t="s">
+      <c r="AQ41" s="170"/>
+      <c r="AR41" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="AS41" s="171"/>
-      <c r="AT41" s="171"/>
-      <c r="AU41" s="171"/>
-      <c r="AV41" s="171" t="s">
+      <c r="AS41" s="170"/>
+      <c r="AT41" s="170"/>
+      <c r="AU41" s="170"/>
+      <c r="AV41" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="AW41" s="171"/>
-      <c r="AX41" s="171"/>
-      <c r="AY41" s="171"/>
-      <c r="AZ41" s="171" t="s">
+      <c r="AW41" s="170"/>
+      <c r="AX41" s="170"/>
+      <c r="AY41" s="170"/>
+      <c r="AZ41" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="BA41" s="171"/>
-      <c r="BB41" s="171"/>
-      <c r="BC41" s="171"/>
+      <c r="BA41" s="170"/>
+      <c r="BB41" s="170"/>
+      <c r="BC41" s="170"/>
       <c r="BD41" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
       <c r="F42" s="60"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="168"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="167"/>
       <c r="I42" s="71"/>
       <c r="J42" s="71"/>
       <c r="K42" s="71"/>
@@ -4740,19 +4710,19 @@
       <c r="Z42" s="62"/>
       <c r="AA42" s="62"/>
       <c r="AB42" s="62"/>
-      <c r="AC42" s="161"/>
-      <c r="AD42" s="162"/>
-      <c r="AE42" s="162"/>
-      <c r="AF42" s="162"/>
-      <c r="AG42" s="162"/>
-      <c r="AH42" s="162"/>
-      <c r="AI42" s="162"/>
-      <c r="AJ42" s="162"/>
-      <c r="AK42" s="162"/>
-      <c r="AL42" s="162"/>
-      <c r="AM42" s="162"/>
-      <c r="AN42" s="162"/>
-      <c r="AO42" s="163"/>
+      <c r="AC42" s="160"/>
+      <c r="AD42" s="161"/>
+      <c r="AE42" s="161"/>
+      <c r="AF42" s="161"/>
+      <c r="AG42" s="161"/>
+      <c r="AH42" s="161"/>
+      <c r="AI42" s="161"/>
+      <c r="AJ42" s="161"/>
+      <c r="AK42" s="161"/>
+      <c r="AL42" s="161"/>
+      <c r="AM42" s="161"/>
+      <c r="AN42" s="161"/>
+      <c r="AO42" s="162"/>
       <c r="AP42" s="62"/>
       <c r="AQ42" s="62"/>
       <c r="AR42" s="62"/>
@@ -4771,15 +4741,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="60"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="170"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="169"/>
       <c r="I43" s="71"/>
       <c r="J43" s="71"/>
       <c r="K43" s="71"/>
@@ -4800,19 +4770,19 @@
       <c r="Z43" s="62"/>
       <c r="AA43" s="62"/>
       <c r="AB43" s="62"/>
-      <c r="AC43" s="164"/>
-      <c r="AD43" s="165"/>
-      <c r="AE43" s="165"/>
-      <c r="AF43" s="165"/>
-      <c r="AG43" s="165"/>
-      <c r="AH43" s="165"/>
-      <c r="AI43" s="165"/>
-      <c r="AJ43" s="165"/>
-      <c r="AK43" s="165"/>
-      <c r="AL43" s="165"/>
-      <c r="AM43" s="165"/>
-      <c r="AN43" s="165"/>
-      <c r="AO43" s="166"/>
+      <c r="AC43" s="163"/>
+      <c r="AD43" s="164"/>
+      <c r="AE43" s="164"/>
+      <c r="AF43" s="164"/>
+      <c r="AG43" s="164"/>
+      <c r="AH43" s="164"/>
+      <c r="AI43" s="164"/>
+      <c r="AJ43" s="164"/>
+      <c r="AK43" s="164"/>
+      <c r="AL43" s="164"/>
+      <c r="AM43" s="164"/>
+      <c r="AN43" s="164"/>
+      <c r="AO43" s="165"/>
       <c r="AP43" s="62"/>
       <c r="AQ43" s="62"/>
       <c r="AR43" s="62"/>
@@ -4831,16 +4801,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="159" t="s">
+    <row r="44" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="160"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="160"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="160"/>
-      <c r="G44" s="160"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="159"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="159"/>
+      <c r="G44" s="159"/>
       <c r="H44" s="125"/>
       <c r="I44" s="125"/>
       <c r="J44" s="125"/>
@@ -4848,15 +4818,15 @@
       <c r="L44" s="125"/>
       <c r="M44" s="125"/>
       <c r="N44" s="126"/>
-      <c r="O44" s="159" t="s">
+      <c r="O44" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="P44" s="160"/>
-      <c r="Q44" s="160"/>
-      <c r="R44" s="160"/>
-      <c r="S44" s="160"/>
-      <c r="T44" s="160"/>
-      <c r="U44" s="160"/>
+      <c r="P44" s="159"/>
+      <c r="Q44" s="159"/>
+      <c r="R44" s="159"/>
+      <c r="S44" s="159"/>
+      <c r="T44" s="159"/>
+      <c r="U44" s="159"/>
       <c r="V44" s="125"/>
       <c r="W44" s="125"/>
       <c r="X44" s="125"/>
@@ -4864,15 +4834,15 @@
       <c r="Z44" s="125"/>
       <c r="AA44" s="125"/>
       <c r="AB44" s="126"/>
-      <c r="AC44" s="159" t="s">
+      <c r="AC44" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="AD44" s="160"/>
-      <c r="AE44" s="160"/>
-      <c r="AF44" s="160"/>
-      <c r="AG44" s="160"/>
-      <c r="AH44" s="160"/>
-      <c r="AI44" s="160"/>
+      <c r="AD44" s="159"/>
+      <c r="AE44" s="159"/>
+      <c r="AF44" s="159"/>
+      <c r="AG44" s="159"/>
+      <c r="AH44" s="159"/>
+      <c r="AI44" s="159"/>
       <c r="AJ44" s="125"/>
       <c r="AK44" s="125"/>
       <c r="AL44" s="125"/>
@@ -4880,15 +4850,15 @@
       <c r="AN44" s="125"/>
       <c r="AO44" s="125"/>
       <c r="AP44" s="126"/>
-      <c r="AQ44" s="159" t="s">
+      <c r="AQ44" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="AR44" s="160"/>
-      <c r="AS44" s="160"/>
-      <c r="AT44" s="160"/>
-      <c r="AU44" s="160"/>
-      <c r="AV44" s="160"/>
-      <c r="AW44" s="160"/>
+      <c r="AR44" s="159"/>
+      <c r="AS44" s="159"/>
+      <c r="AT44" s="159"/>
+      <c r="AU44" s="159"/>
+      <c r="AV44" s="159"/>
+      <c r="AW44" s="159"/>
       <c r="AX44" s="125"/>
       <c r="AY44" s="125"/>
       <c r="AZ44" s="125"/>
@@ -4899,12 +4869,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="145" t="s">
+    <row r="45" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="125"/>
@@ -4916,9 +4886,9 @@
       <c r="L45" s="52"/>
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
-      <c r="O45" s="145"/>
-      <c r="P45" s="146"/>
-      <c r="Q45" s="146"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="145"/>
+      <c r="Q45" s="145"/>
       <c r="R45" s="125"/>
       <c r="S45" s="125"/>
       <c r="T45" s="125"/>
@@ -4930,9 +4900,9 @@
       <c r="Z45" s="52"/>
       <c r="AA45" s="52"/>
       <c r="AB45" s="52"/>
-      <c r="AC45" s="145"/>
-      <c r="AD45" s="146"/>
-      <c r="AE45" s="146"/>
+      <c r="AC45" s="144"/>
+      <c r="AD45" s="145"/>
+      <c r="AE45" s="145"/>
       <c r="AF45" s="125"/>
       <c r="AG45" s="125"/>
       <c r="AH45" s="125"/>
@@ -4963,12 +4933,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="145" t="s">
+    <row r="46" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="125"/>
@@ -4980,9 +4950,9 @@
       <c r="L46" s="52"/>
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
-      <c r="O46" s="145"/>
-      <c r="P46" s="146"/>
-      <c r="Q46" s="146"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="145"/>
+      <c r="Q46" s="145"/>
       <c r="R46" s="125"/>
       <c r="S46" s="125"/>
       <c r="T46" s="125"/>
@@ -4994,9 +4964,9 @@
       <c r="Z46" s="52"/>
       <c r="AA46" s="52"/>
       <c r="AB46" s="52"/>
-      <c r="AC46" s="145"/>
-      <c r="AD46" s="146"/>
-      <c r="AE46" s="146"/>
+      <c r="AC46" s="144"/>
+      <c r="AD46" s="145"/>
+      <c r="AE46" s="145"/>
       <c r="AF46" s="125"/>
       <c r="AG46" s="125"/>
       <c r="AH46" s="125"/>
@@ -5008,57 +4978,57 @@
       <c r="AN46" s="52"/>
       <c r="AO46" s="52"/>
       <c r="AP46" s="52"/>
-      <c r="AQ46" s="158" t="s">
+      <c r="AQ46" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="AR46" s="158"/>
-      <c r="AS46" s="158"/>
-      <c r="AT46" s="158"/>
-      <c r="AU46" s="158"/>
-      <c r="AV46" s="158"/>
-      <c r="AW46" s="158"/>
-      <c r="AX46" s="148"/>
-      <c r="AY46" s="149"/>
-      <c r="AZ46" s="149"/>
-      <c r="BA46" s="149"/>
-      <c r="BB46" s="149"/>
-      <c r="BC46" s="150"/>
+      <c r="AR46" s="157"/>
+      <c r="AS46" s="157"/>
+      <c r="AT46" s="157"/>
+      <c r="AU46" s="157"/>
+      <c r="AV46" s="157"/>
+      <c r="AW46" s="157"/>
+      <c r="AX46" s="147"/>
+      <c r="AY46" s="148"/>
+      <c r="AZ46" s="148"/>
+      <c r="BA46" s="148"/>
+      <c r="BB46" s="148"/>
+      <c r="BC46" s="149"/>
       <c r="BD46" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="145" t="s">
+    <row r="47" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
-      <c r="N47" s="157"/>
-      <c r="O47" s="145"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
+      <c r="N47" s="156"/>
+      <c r="O47" s="144"/>
       <c r="P47" s="125"/>
       <c r="Q47" s="125"/>
       <c r="R47" s="125"/>
       <c r="S47" s="125"/>
       <c r="T47" s="125"/>
       <c r="U47" s="126"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="156"/>
-      <c r="X47" s="156"/>
-      <c r="Y47" s="156"/>
-      <c r="Z47" s="156"/>
-      <c r="AA47" s="156"/>
-      <c r="AB47" s="157"/>
-      <c r="AC47" s="145" t="s">
+      <c r="V47" s="147"/>
+      <c r="W47" s="155"/>
+      <c r="X47" s="155"/>
+      <c r="Y47" s="155"/>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="156"/>
+      <c r="AC47" s="144" t="s">
         <v>42</v>
       </c>
       <c r="AD47" s="125"/>
@@ -5067,49 +5037,49 @@
       <c r="AG47" s="125"/>
       <c r="AH47" s="125"/>
       <c r="AI47" s="126"/>
-      <c r="AJ47" s="148"/>
-      <c r="AK47" s="156"/>
-      <c r="AL47" s="156"/>
-      <c r="AM47" s="156"/>
-      <c r="AN47" s="156"/>
-      <c r="AO47" s="156"/>
-      <c r="AP47" s="157"/>
-      <c r="AQ47" s="145" t="s">
+      <c r="AJ47" s="147"/>
+      <c r="AK47" s="155"/>
+      <c r="AL47" s="155"/>
+      <c r="AM47" s="155"/>
+      <c r="AN47" s="155"/>
+      <c r="AO47" s="155"/>
+      <c r="AP47" s="156"/>
+      <c r="AQ47" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="AR47" s="146"/>
-      <c r="AS47" s="146"/>
-      <c r="AT47" s="146"/>
-      <c r="AU47" s="146"/>
-      <c r="AV47" s="146"/>
-      <c r="AW47" s="147"/>
-      <c r="AX47" s="148"/>
-      <c r="AY47" s="149"/>
-      <c r="AZ47" s="149"/>
-      <c r="BA47" s="149"/>
-      <c r="BB47" s="149"/>
-      <c r="BC47" s="150"/>
+      <c r="AR47" s="145"/>
+      <c r="AS47" s="145"/>
+      <c r="AT47" s="145"/>
+      <c r="AU47" s="145"/>
+      <c r="AV47" s="145"/>
+      <c r="AW47" s="146"/>
+      <c r="AX47" s="147"/>
+      <c r="AY47" s="148"/>
+      <c r="AZ47" s="148"/>
+      <c r="BA47" s="148"/>
+      <c r="BB47" s="148"/>
+      <c r="BC47" s="149"/>
       <c r="BD47" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="151" t="s">
+    <row r="48" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="151"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="150"/>
+      <c r="K48" s="150"/>
+      <c r="L48" s="150"/>
+      <c r="M48" s="150"/>
+      <c r="N48" s="150"/>
       <c r="O48" s="124" t="s">
         <v>83</v>
       </c>
@@ -5119,13 +5089,13 @@
       <c r="S48" s="125"/>
       <c r="T48" s="125"/>
       <c r="U48" s="126"/>
-      <c r="V48" s="151"/>
-      <c r="W48" s="151"/>
-      <c r="X48" s="151"/>
-      <c r="Y48" s="151"/>
-      <c r="Z48" s="151"/>
-      <c r="AA48" s="151"/>
-      <c r="AB48" s="151"/>
+      <c r="V48" s="150"/>
+      <c r="W48" s="150"/>
+      <c r="X48" s="150"/>
+      <c r="Y48" s="150"/>
+      <c r="Z48" s="150"/>
+      <c r="AA48" s="150"/>
+      <c r="AB48" s="150"/>
       <c r="AC48" s="124" t="s">
         <v>58</v>
       </c>
@@ -5135,95 +5105,95 @@
       <c r="AG48" s="125"/>
       <c r="AH48" s="125"/>
       <c r="AI48" s="126"/>
-      <c r="AJ48" s="151"/>
-      <c r="AK48" s="151"/>
-      <c r="AL48" s="151"/>
-      <c r="AM48" s="151"/>
-      <c r="AN48" s="151"/>
-      <c r="AO48" s="151"/>
-      <c r="AP48" s="151"/>
-      <c r="AQ48" s="145" t="s">
+      <c r="AJ48" s="150"/>
+      <c r="AK48" s="150"/>
+      <c r="AL48" s="150"/>
+      <c r="AM48" s="150"/>
+      <c r="AN48" s="150"/>
+      <c r="AO48" s="150"/>
+      <c r="AP48" s="150"/>
+      <c r="AQ48" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="AR48" s="146"/>
-      <c r="AS48" s="146"/>
-      <c r="AT48" s="146"/>
-      <c r="AU48" s="146"/>
-      <c r="AV48" s="146"/>
-      <c r="AW48" s="147"/>
-      <c r="AX48" s="148"/>
-      <c r="AY48" s="149"/>
-      <c r="AZ48" s="149"/>
-      <c r="BA48" s="149"/>
-      <c r="BB48" s="149"/>
-      <c r="BC48" s="150"/>
+      <c r="AR48" s="145"/>
+      <c r="AS48" s="145"/>
+      <c r="AT48" s="145"/>
+      <c r="AU48" s="145"/>
+      <c r="AV48" s="145"/>
+      <c r="AW48" s="146"/>
+      <c r="AX48" s="147"/>
+      <c r="AY48" s="148"/>
+      <c r="AZ48" s="148"/>
+      <c r="BA48" s="148"/>
+      <c r="BB48" s="148"/>
+      <c r="BC48" s="149"/>
       <c r="BD48" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="152"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="153"/>
-      <c r="R49" s="153"/>
-      <c r="S49" s="153"/>
-      <c r="T49" s="153"/>
-      <c r="U49" s="153"/>
-      <c r="V49" s="153"/>
-      <c r="W49" s="153"/>
-      <c r="X49" s="153"/>
-      <c r="Y49" s="153"/>
-      <c r="Z49" s="153"/>
-      <c r="AA49" s="153"/>
-      <c r="AB49" s="153"/>
-      <c r="AC49" s="153"/>
-      <c r="AD49" s="153"/>
-      <c r="AE49" s="153"/>
-      <c r="AF49" s="153"/>
-      <c r="AG49" s="153"/>
-      <c r="AH49" s="153"/>
-      <c r="AI49" s="153"/>
-      <c r="AJ49" s="153"/>
-      <c r="AK49" s="153"/>
-      <c r="AL49" s="153"/>
-      <c r="AM49" s="153"/>
-      <c r="AN49" s="153"/>
-      <c r="AO49" s="153"/>
-      <c r="AP49" s="154"/>
-      <c r="AQ49" s="152" t="s">
+    <row r="49" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="151"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="152"/>
+      <c r="N49" s="152"/>
+      <c r="O49" s="152"/>
+      <c r="P49" s="152"/>
+      <c r="Q49" s="152"/>
+      <c r="R49" s="152"/>
+      <c r="S49" s="152"/>
+      <c r="T49" s="152"/>
+      <c r="U49" s="152"/>
+      <c r="V49" s="152"/>
+      <c r="W49" s="152"/>
+      <c r="X49" s="152"/>
+      <c r="Y49" s="152"/>
+      <c r="Z49" s="152"/>
+      <c r="AA49" s="152"/>
+      <c r="AB49" s="152"/>
+      <c r="AC49" s="152"/>
+      <c r="AD49" s="152"/>
+      <c r="AE49" s="152"/>
+      <c r="AF49" s="152"/>
+      <c r="AG49" s="152"/>
+      <c r="AH49" s="152"/>
+      <c r="AI49" s="152"/>
+      <c r="AJ49" s="152"/>
+      <c r="AK49" s="152"/>
+      <c r="AL49" s="152"/>
+      <c r="AM49" s="152"/>
+      <c r="AN49" s="152"/>
+      <c r="AO49" s="152"/>
+      <c r="AP49" s="153"/>
+      <c r="AQ49" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="AR49" s="153"/>
-      <c r="AS49" s="153"/>
-      <c r="AT49" s="153"/>
-      <c r="AU49" s="153"/>
-      <c r="AV49" s="153"/>
-      <c r="AW49" s="153"/>
-      <c r="AX49" s="153"/>
-      <c r="AY49" s="153"/>
-      <c r="AZ49" s="153"/>
-      <c r="BA49" s="153"/>
-      <c r="BB49" s="153"/>
-      <c r="BC49" s="154"/>
+      <c r="AR49" s="152"/>
+      <c r="AS49" s="152"/>
+      <c r="AT49" s="152"/>
+      <c r="AU49" s="152"/>
+      <c r="AV49" s="152"/>
+      <c r="AW49" s="152"/>
+      <c r="AX49" s="152"/>
+      <c r="AY49" s="152"/>
+      <c r="AZ49" s="152"/>
+      <c r="BA49" s="152"/>
+      <c r="BB49" s="152"/>
+      <c r="BC49" s="153"/>
       <c r="BD49" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="61" t="s">
         <v>54</v>
       </c>
@@ -5260,15 +5230,15 @@
       <c r="Z50" s="61"/>
       <c r="AA50" s="61"/>
       <c r="AB50" s="61"/>
-      <c r="AC50" s="61" t="s">
+      <c r="AC50" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="61"/>
-      <c r="AI50" s="61"/>
+      <c r="AD50" s="185"/>
+      <c r="AE50" s="185"/>
+      <c r="AF50" s="185"/>
+      <c r="AG50" s="185"/>
+      <c r="AH50" s="185"/>
+      <c r="AI50" s="185"/>
       <c r="AJ50" s="130" t="s">
         <v>85</v>
       </c>
@@ -5278,26 +5248,26 @@
       <c r="AN50" s="131"/>
       <c r="AO50" s="131"/>
       <c r="AP50" s="132"/>
-      <c r="AQ50" s="145" t="s">
+      <c r="AQ50" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="AR50" s="146"/>
-      <c r="AS50" s="146"/>
-      <c r="AT50" s="146"/>
-      <c r="AU50" s="146"/>
-      <c r="AV50" s="146"/>
-      <c r="AW50" s="147"/>
-      <c r="AX50" s="148"/>
-      <c r="AY50" s="149"/>
-      <c r="AZ50" s="149"/>
-      <c r="BA50" s="149"/>
-      <c r="BB50" s="149"/>
-      <c r="BC50" s="150"/>
+      <c r="AR50" s="145"/>
+      <c r="AS50" s="145"/>
+      <c r="AT50" s="145"/>
+      <c r="AU50" s="145"/>
+      <c r="AV50" s="145"/>
+      <c r="AW50" s="146"/>
+      <c r="AX50" s="147"/>
+      <c r="AY50" s="148"/>
+      <c r="AZ50" s="148"/>
+      <c r="BA50" s="148"/>
+      <c r="BB50" s="148"/>
+      <c r="BC50" s="149"/>
       <c r="BD50" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="61"/>
       <c r="B51" s="61"/>
       <c r="C51" s="61"/>
@@ -5326,13 +5296,13 @@
       <c r="Z51" s="61"/>
       <c r="AA51" s="61"/>
       <c r="AB51" s="61"/>
-      <c r="AC51" s="61"/>
-      <c r="AD51" s="61"/>
-      <c r="AE51" s="61"/>
-      <c r="AF51" s="61"/>
-      <c r="AG51" s="61"/>
-      <c r="AH51" s="61"/>
-      <c r="AI51" s="144"/>
+      <c r="AC51" s="185"/>
+      <c r="AD51" s="185"/>
+      <c r="AE51" s="185"/>
+      <c r="AF51" s="185"/>
+      <c r="AG51" s="185"/>
+      <c r="AH51" s="185"/>
+      <c r="AI51" s="186"/>
       <c r="AJ51" s="133"/>
       <c r="AK51" s="134"/>
       <c r="AL51" s="134"/>
@@ -5340,15 +5310,15 @@
       <c r="AN51" s="134"/>
       <c r="AO51" s="134"/>
       <c r="AP51" s="135"/>
-      <c r="AQ51" s="147" t="s">
+      <c r="AQ51" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="AR51" s="158"/>
-      <c r="AS51" s="158"/>
-      <c r="AT51" s="158"/>
-      <c r="AU51" s="158"/>
-      <c r="AV51" s="158"/>
-      <c r="AW51" s="158"/>
+      <c r="AR51" s="157"/>
+      <c r="AS51" s="157"/>
+      <c r="AT51" s="157"/>
+      <c r="AU51" s="157"/>
+      <c r="AV51" s="157"/>
+      <c r="AW51" s="157"/>
       <c r="AX51" s="52"/>
       <c r="AY51" s="52"/>
       <c r="AZ51" s="52"/>
@@ -5359,7 +5329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="61"/>
       <c r="B52" s="61"/>
       <c r="C52" s="61"/>
@@ -5388,13 +5358,13 @@
       <c r="Z52" s="61"/>
       <c r="AA52" s="61"/>
       <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="61"/>
-      <c r="AF52" s="61"/>
-      <c r="AG52" s="61"/>
-      <c r="AH52" s="61"/>
-      <c r="AI52" s="144"/>
+      <c r="AC52" s="185"/>
+      <c r="AD52" s="185"/>
+      <c r="AE52" s="185"/>
+      <c r="AF52" s="185"/>
+      <c r="AG52" s="185"/>
+      <c r="AH52" s="185"/>
+      <c r="AI52" s="186"/>
       <c r="AJ52" s="124" t="s">
         <v>86</v>
       </c>
@@ -5413,17 +5383,17 @@
       <c r="AU52" s="125"/>
       <c r="AV52" s="125"/>
       <c r="AW52" s="126"/>
-      <c r="AX52" s="155"/>
-      <c r="AY52" s="156"/>
-      <c r="AZ52" s="156"/>
-      <c r="BA52" s="156"/>
-      <c r="BB52" s="156"/>
-      <c r="BC52" s="157"/>
+      <c r="AX52" s="154"/>
+      <c r="AY52" s="155"/>
+      <c r="AZ52" s="155"/>
+      <c r="BA52" s="155"/>
+      <c r="BB52" s="155"/>
+      <c r="BC52" s="156"/>
       <c r="BD52" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="61" t="s">
         <v>55</v>
       </c>
@@ -5454,13 +5424,13 @@
       <c r="Z53" s="61"/>
       <c r="AA53" s="61"/>
       <c r="AB53" s="61"/>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="61"/>
-      <c r="AF53" s="61"/>
-      <c r="AG53" s="61"/>
-      <c r="AH53" s="61"/>
-      <c r="AI53" s="144"/>
+      <c r="AC53" s="185"/>
+      <c r="AD53" s="185"/>
+      <c r="AE53" s="185"/>
+      <c r="AF53" s="185"/>
+      <c r="AG53" s="185"/>
+      <c r="AH53" s="185"/>
+      <c r="AI53" s="186"/>
       <c r="AJ53" s="127"/>
       <c r="AK53" s="128"/>
       <c r="AL53" s="128"/>
@@ -5477,17 +5447,17 @@
       <c r="AU53" s="125"/>
       <c r="AV53" s="125"/>
       <c r="AW53" s="126"/>
-      <c r="AX53" s="155"/>
-      <c r="AY53" s="156"/>
-      <c r="AZ53" s="156"/>
-      <c r="BA53" s="156"/>
-      <c r="BB53" s="156"/>
-      <c r="BC53" s="157"/>
+      <c r="AX53" s="154"/>
+      <c r="AY53" s="155"/>
+      <c r="AZ53" s="155"/>
+      <c r="BA53" s="155"/>
+      <c r="BB53" s="155"/>
+      <c r="BC53" s="156"/>
       <c r="BD53" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="61"/>
       <c r="B54" s="61"/>
       <c r="C54" s="61"/>
@@ -5516,13 +5486,13 @@
       <c r="Z54" s="61"/>
       <c r="AA54" s="61"/>
       <c r="AB54" s="61"/>
-      <c r="AC54" s="61"/>
-      <c r="AD54" s="61"/>
-      <c r="AE54" s="61"/>
-      <c r="AF54" s="61"/>
-      <c r="AG54" s="61"/>
-      <c r="AH54" s="61"/>
-      <c r="AI54" s="144"/>
+      <c r="AC54" s="185"/>
+      <c r="AD54" s="185"/>
+      <c r="AE54" s="185"/>
+      <c r="AF54" s="185"/>
+      <c r="AG54" s="185"/>
+      <c r="AH54" s="185"/>
+      <c r="AI54" s="186"/>
       <c r="AJ54" s="124" t="s">
         <v>87</v>
       </c>
@@ -5541,17 +5511,17 @@
       <c r="AU54" s="125"/>
       <c r="AV54" s="125"/>
       <c r="AW54" s="126"/>
-      <c r="AX54" s="155"/>
-      <c r="AY54" s="156"/>
-      <c r="AZ54" s="156"/>
-      <c r="BA54" s="156"/>
-      <c r="BB54" s="156"/>
-      <c r="BC54" s="157"/>
+      <c r="AX54" s="154"/>
+      <c r="AY54" s="155"/>
+      <c r="AZ54" s="155"/>
+      <c r="BA54" s="155"/>
+      <c r="BB54" s="155"/>
+      <c r="BC54" s="156"/>
       <c r="BD54" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:56" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="61"/>
       <c r="B55" s="61"/>
       <c r="C55" s="61"/>
@@ -5582,13 +5552,13 @@
       <c r="Z55" s="61"/>
       <c r="AA55" s="61"/>
       <c r="AB55" s="61"/>
-      <c r="AC55" s="61"/>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="61"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="61"/>
-      <c r="AH55" s="61"/>
-      <c r="AI55" s="144"/>
+      <c r="AC55" s="185"/>
+      <c r="AD55" s="185"/>
+      <c r="AE55" s="185"/>
+      <c r="AF55" s="185"/>
+      <c r="AG55" s="185"/>
+      <c r="AH55" s="185"/>
+      <c r="AI55" s="186"/>
       <c r="AJ55" s="121"/>
       <c r="AK55" s="122"/>
       <c r="AL55" s="122"/>
@@ -5599,12 +5569,12 @@
       <c r="AQ55" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="AR55" s="151"/>
-      <c r="AS55" s="151"/>
-      <c r="AT55" s="151"/>
-      <c r="AU55" s="151"/>
-      <c r="AV55" s="151"/>
-      <c r="AW55" s="151"/>
+      <c r="AR55" s="150"/>
+      <c r="AS55" s="150"/>
+      <c r="AT55" s="150"/>
+      <c r="AU55" s="150"/>
+      <c r="AV55" s="150"/>
+      <c r="AW55" s="150"/>
       <c r="AX55" s="60"/>
       <c r="AY55" s="60"/>
       <c r="AZ55" s="60"/>
@@ -5615,257 +5585,257 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="65" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="66" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="67" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="68" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="69" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="70" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="71" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="72" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="73" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="74" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="75" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="76" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="77" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="78" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="79" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="80" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="81" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="82" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="83" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="84" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="85" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="86" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="87" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="88" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="89" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="90" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="91" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="92" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="93" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="94" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="95" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="96" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="97" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="98" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="99" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="100" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="101" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="102" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="103" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="104" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="105" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="106" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="107" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="108" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="109" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="110" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="111" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="112" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="113" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="114" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="115" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="116" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="117" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="118" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="119" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="120" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="121" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="122" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="123" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="124" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="125" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="126" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="127" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="128" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="129" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="130" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="131" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="132" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="133" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="134" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="135" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="136" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="137" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="138" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="139" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="140" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="141" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="142" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="143" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="144" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="145" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="146" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="147" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="148" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="149" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="150" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="151" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="152" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="153" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="154" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="155" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="156" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="157" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="158" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="159" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="160" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="161" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="162" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="163" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="164" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="165" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="166" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="167" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="168" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="169" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="170" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="171" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="172" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="173" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="174" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="175" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="176" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="177" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="178" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="179" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="180" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="181" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="182" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="183" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="184" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="185" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="186" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="187" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="188" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="189" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="190" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="191" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="192" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="193" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="194" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="195" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="196" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="197" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="198" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="199" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="200" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="201" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="202" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="203" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="204" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="205" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="206" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="207" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="208" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="209" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="210" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="211" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="212" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="213" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="214" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="215" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="216" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="217" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="218" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="219" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="220" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="221" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="222" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="223" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="224" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="225" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="226" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="227" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="228" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="229" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="230" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="231" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="232" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="233" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="234" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="235" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="236" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="237" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="238" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="239" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="240" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="241" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="242" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="243" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="244" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="245" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="246" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="247" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="248" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="249" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="250" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="251" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="252" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="253" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="254" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="255" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="256" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="257" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="258" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="259" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="260" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="261" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="262" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="263" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="264" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="265" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="266" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="267" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="268" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="269" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="270" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="271" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="272" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="273" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="274" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="275" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="276" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="277" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="278" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="279" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="280" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="281" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="282" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="283" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="284" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="285" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="286" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="287" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="288" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="289" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="290" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="291" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="292" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="293" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="294" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="295" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="296" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="297" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="298" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="299" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="300" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="301" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="302" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="303" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="304" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="305" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="306" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:56" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="65" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="66" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="67" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="68" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="69" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="70" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="71" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="72" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="73" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="74" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="75" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="76" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="77" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="78" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="79" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="80" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="81" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="82" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="83" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="84" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="85" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="86" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="87" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="88" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="89" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="90" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="91" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="92" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="93" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="94" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="95" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="96" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="97" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="98" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="99" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="100" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="101" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="102" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="103" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="104" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="105" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="106" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="107" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="108" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="109" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="110" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="111" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="112" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="113" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="114" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="115" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="116" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="117" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="118" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="119" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="120" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="121" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="122" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="123" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="124" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="125" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="126" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="127" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="128" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="129" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="130" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="131" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="132" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="133" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="134" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="135" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="136" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="137" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="138" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="139" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="140" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="141" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="142" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="143" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="144" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="145" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="146" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="147" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="148" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="149" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="150" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="151" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="152" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="153" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="154" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="155" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="156" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="157" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="158" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="159" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="160" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="161" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="162" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="163" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="164" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="165" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="166" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="167" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="168" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="169" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="170" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="171" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="172" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="173" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="174" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="175" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="176" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="177" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="178" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="179" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="180" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="181" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="182" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="183" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="184" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="185" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="186" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="187" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="188" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="189" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="190" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="191" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="192" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="193" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="194" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="195" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="196" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="197" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="198" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="199" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="200" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="201" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="202" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="203" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="204" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="205" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="206" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="207" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="208" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="209" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="210" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="211" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="212" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="213" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="214" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="215" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="216" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="217" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="218" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="219" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="220" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="221" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="222" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="223" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="224" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="225" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="226" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="227" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="228" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="229" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="230" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="231" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="232" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="233" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="234" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="235" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="236" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="237" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="238" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="239" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="240" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="241" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="242" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="243" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="244" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="245" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="246" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="247" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="248" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="249" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="250" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="251" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="252" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="253" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="254" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="255" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="256" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="257" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="258" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="259" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="260" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="261" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="262" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="263" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="264" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="265" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="266" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="267" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="268" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="269" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="270" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="271" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="272" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="273" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="274" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="275" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="276" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="277" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="278" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="279" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="280" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="281" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="282" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="283" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="284" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="285" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="286" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="287" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="288" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="289" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="290" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="291" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="292" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="293" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="294" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="295" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="296" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="297" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="298" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="299" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="300" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="301" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="302" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="303" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="304" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="305" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="306" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="98">
     <mergeCell ref="P21:Z21"/>
@@ -5985,14 +5955,14 @@
       <selection activeCell="K6" sqref="K6:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
-    <col min="16" max="17" width="9.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
@@ -6006,7 +5976,7 @@
       <c r="J2" s="179"/>
       <c r="K2" s="174"/>
     </row>
-    <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="115" t="s">
         <v>15</v>
       </c>
@@ -6020,10 +5990,10 @@
       <c r="J3" s="179"/>
       <c r="K3" s="174"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G4" s="4"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
         <v>16</v>
       </c>
@@ -6041,7 +6011,7 @@
       <c r="M6" s="184"/>
       <c r="N6" s="184"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="94" t="s">
         <v>17</v>
       </c>
@@ -6057,7 +6027,7 @@
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
         <v>18</v>
       </c>
@@ -6073,7 +6043,7 @@
       <c r="M8" s="184"/>
       <c r="N8" s="184"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="94" t="s">
         <v>19</v>
       </c>
@@ -6089,7 +6059,7 @@
       <c r="M9" s="184"/>
       <c r="N9" s="184"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="94" t="s">
         <v>20</v>
       </c>
@@ -6105,7 +6075,7 @@
       <c r="M10" s="184"/>
       <c r="N10" s="184"/>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -6114,7 +6084,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="45"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -6129,7 +6099,7 @@
       <c r="M14" s="42"/>
       <c r="N14" s="43"/>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="180" t="s">
         <v>69</v>
       </c>
@@ -6147,7 +6117,7 @@
       <c r="M15" s="181"/>
       <c r="N15" s="182"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="180"/>
       <c r="C16" s="181"/>
       <c r="D16" s="181"/>
@@ -6162,19 +6132,19 @@
       <c r="M16" s="181"/>
       <c r="N16" s="182"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="G17" s="34"/>
       <c r="I17" s="33"/>
       <c r="N17" s="34"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="G18" s="34"/>
       <c r="I18" s="33"/>
       <c r="N18" s="34"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="C19" s="175" t="s">
         <v>71</v>
@@ -6192,7 +6162,7 @@
       <c r="M19" s="176"/>
       <c r="N19" s="177"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
       <c r="C20" s="175"/>
       <c r="D20" s="175"/>
@@ -6206,7 +6176,7 @@
       <c r="M20" s="176"/>
       <c r="N20" s="177"/>
     </row>
-    <row r="21" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="35"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -6217,13 +6187,13 @@
       <c r="I21" s="33"/>
       <c r="N21" s="34"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="G22" s="34"/>
       <c r="I22" s="33"/>
       <c r="N22" s="34"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
       <c r="C23" s="175" t="s">
         <v>72</v>
@@ -6241,7 +6211,7 @@
       <c r="M23" s="176"/>
       <c r="N23" s="177"/>
     </row>
-    <row r="24" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
       <c r="C24" s="175"/>
       <c r="D24" s="175"/>
@@ -6256,7 +6226,7 @@
       <c r="M24" s="176"/>
       <c r="N24" s="177"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
@@ -6269,7 +6239,7 @@
       <c r="M25" s="31"/>
       <c r="N25" s="49"/>
     </row>
-    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -6283,8 +6253,8 @@
       <c r="M26" s="39"/>
       <c r="N26" s="40"/>
     </row>
-    <row r="27" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:15" ht="31" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B29" s="173" t="s">
         <v>68</v>
       </c>
